--- a/data/trans_orig/P59-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P59-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>23031</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15011</v>
+        <v>15093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>34167</v>
+        <v>35624</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03318527239948464</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02162898508819041</v>
+        <v>0.0217479602188771</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04923169984220983</v>
+        <v>0.05132986302827819</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -765,19 +765,19 @@
         <v>77991</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>62437</v>
+        <v>62954</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>96195</v>
+        <v>95481</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1133013941544831</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09070584275925594</v>
+        <v>0.09145681973895092</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.139747590200168</v>
+        <v>0.138710390511403</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>100</v>
@@ -786,19 +786,19 @@
         <v>101022</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83133</v>
+        <v>82724</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121595</v>
+        <v>122265</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07307928625045082</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06013821719882308</v>
+        <v>0.0598421408884113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08796190550595298</v>
+        <v>0.08844635853164019</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>5143</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11463</v>
+        <v>10469</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007410697183609325</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00286282324638983</v>
+        <v>0.002858221572976048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01651749510555394</v>
+        <v>0.01508449696142448</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -836,19 +836,19 @@
         <v>3188</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8575</v>
+        <v>8486</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00463162069220697</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001445540488924699</v>
+        <v>0.001447422264628135</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01245792614871186</v>
+        <v>0.01232779491155928</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -857,19 +857,19 @@
         <v>8331</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3199</v>
+        <v>4031</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15556</v>
+        <v>15818</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006026849418487282</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002314482324018152</v>
+        <v>0.002915935836122738</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0112529191074216</v>
+        <v>0.01144283472516955</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>5673</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1921</v>
+        <v>1927</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13145</v>
+        <v>13283</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.008174255272671026</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00276764492006201</v>
+        <v>0.002776951536986439</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01894057217837828</v>
+        <v>0.01913934019921843</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -907,19 +907,19 @@
         <v>18583</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10985</v>
+        <v>10741</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29602</v>
+        <v>29250</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02699613238872656</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01595858510385574</v>
+        <v>0.01560401160034787</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04300432186535302</v>
+        <v>0.04249266567332717</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -928,19 +928,19 @@
         <v>24256</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14971</v>
+        <v>14840</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>38777</v>
+        <v>37106</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01754665386012831</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01082996340919132</v>
+        <v>0.01073504186952606</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02805154812283203</v>
+        <v>0.02684211668602375</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>229267</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>204911</v>
+        <v>204141</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253705</v>
+        <v>252465</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.330349749153536</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2952558735219322</v>
+        <v>0.2941461607079549</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3655630028007827</v>
+        <v>0.3637760968106208</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>169</v>
@@ -978,19 +978,19 @@
         <v>161668</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>142518</v>
+        <v>141033</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>183093</v>
+        <v>184199</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2348625470309673</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2070425854077189</v>
+        <v>0.2048855309710119</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.265988304406591</v>
+        <v>0.2675939605103866</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>394</v>
@@ -999,19 +999,19 @@
         <v>390935</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>362077</v>
+        <v>358276</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>424829</v>
+        <v>424525</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2828016691838501</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2619262485103415</v>
+        <v>0.2591764769285845</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3073208305935924</v>
+        <v>0.3071012309776369</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>430898</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>405932</v>
+        <v>406745</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>458379</v>
+        <v>455751</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6208800259906989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5849069580225743</v>
+        <v>0.5860773524675239</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6604768745228288</v>
+        <v>0.6566900815932354</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>432</v>
@@ -1049,19 +1049,19 @@
         <v>426921</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>400771</v>
+        <v>400116</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>449097</v>
+        <v>450650</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6202083057336161</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5822183756663246</v>
+        <v>0.5812675977560985</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6524250543897284</v>
+        <v>0.654680809766658</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>856</v>
@@ -1070,19 +1070,19 @@
         <v>857819</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>819657</v>
+        <v>821115</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>889605</v>
+        <v>889541</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6205455412870835</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5929388156937732</v>
+        <v>0.5939934270657575</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6435392687053573</v>
+        <v>0.6434927959746937</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>33540</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23887</v>
+        <v>22404</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49358</v>
+        <v>46683</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03487184409127178</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02483596805615172</v>
+        <v>0.02329388374121334</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05131822850782732</v>
+        <v>0.04853699734523331</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -1195,19 +1195,19 @@
         <v>115531</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95331</v>
+        <v>95158</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>137460</v>
+        <v>137976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1193014388869143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09844278304507738</v>
+        <v>0.09826408593264221</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1419466991756395</v>
+        <v>0.1424792361140171</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>137</v>
@@ -1216,19 +1216,19 @@
         <v>149070</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>124065</v>
+        <v>127331</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>172611</v>
+        <v>174028</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07723083659403748</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06427581043150195</v>
+        <v>0.06596824404147431</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08942698935220286</v>
+        <v>0.09016073671243639</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>5889</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1940</v>
+        <v>2088</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14031</v>
+        <v>14094</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006123170377238524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002017408299591447</v>
+        <v>0.002170572205443157</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01458796946276205</v>
+        <v>0.01465350743503917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1266,19 +1266,19 @@
         <v>10850</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5048</v>
+        <v>5121</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20397</v>
+        <v>21794</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0112037551420989</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005212783948884901</v>
+        <v>0.005288292648294497</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0210631490777145</v>
+        <v>0.0225057372372966</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -1287,19 +1287,19 @@
         <v>16739</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9080</v>
+        <v>9667</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28069</v>
+        <v>28414</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008672139758002307</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004704141615838786</v>
+        <v>0.005008056865268558</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01454193654174667</v>
+        <v>0.01472061875770305</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>18755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10264</v>
+        <v>10917</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30545</v>
+        <v>30327</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01950033269467748</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01067123454931376</v>
+        <v>0.01135054874506905</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03175811238375642</v>
+        <v>0.03153198727867926</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1337,19 +1337,19 @@
         <v>17393</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10245</v>
+        <v>10593</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>27412</v>
+        <v>28378</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01796048524253135</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01057984835196937</v>
+        <v>0.01093885238999772</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02830718791684461</v>
+        <v>0.02930472627567194</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -1358,19 +1358,19 @@
         <v>36148</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>24969</v>
+        <v>25443</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>50370</v>
+        <v>52225</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01872777910326516</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01293579402067858</v>
+        <v>0.01318169538223405</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02609586902848747</v>
+        <v>0.0270568629097962</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>308231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>278441</v>
+        <v>277915</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>337690</v>
+        <v>342252</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3204730204242962</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.289500400538045</v>
+        <v>0.2889531326149964</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3511021321547602</v>
+        <v>0.3558452912757228</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -1408,19 +1408,19 @@
         <v>213089</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>189542</v>
+        <v>188652</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>239668</v>
+        <v>239145</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2200442527051257</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1957284423992926</v>
+        <v>0.194809509216436</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2474899852847964</v>
+        <v>0.2469500526453293</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>497</v>
@@ -1429,19 +1429,19 @@
         <v>521320</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>480404</v>
+        <v>481822</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>560553</v>
+        <v>564375</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2700871168892257</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2488893458398867</v>
+        <v>0.2496239249436333</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2904127513877876</v>
+        <v>0.2923931590024145</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>595385</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>563852</v>
+        <v>562032</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>627467</v>
+        <v>627824</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.619031632412516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5862469150077434</v>
+        <v>0.5843542252341992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6523886331370892</v>
+        <v>0.6527590659892246</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>566</v>
@@ -1479,19 +1479,19 @@
         <v>611531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>581739</v>
+        <v>582841</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>641605</v>
+        <v>643398</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6314900680233297</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.60072609708172</v>
+        <v>0.6018645335923729</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6625465456022848</v>
+        <v>0.6643978458016923</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1125</v>
@@ -1500,19 +1500,19 @@
         <v>1206915</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1163221</v>
+        <v>1161979</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1248525</v>
+        <v>1248503</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6252821276554694</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.602644921129442</v>
+        <v>0.6020013812276849</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6468396571980618</v>
+        <v>0.6468280660471553</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>22365</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13752</v>
+        <v>13897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33556</v>
+        <v>32108</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0329625587169869</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0202676152620938</v>
+        <v>0.02048115482392483</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04945562558754454</v>
+        <v>0.04732074973311995</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>85</v>
@@ -1625,19 +1625,19 @@
         <v>86384</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69630</v>
+        <v>70160</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>104479</v>
+        <v>106004</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1263220514778518</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1018220076841364</v>
+        <v>0.1025968473371282</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1527829055746638</v>
+        <v>0.155013051539166</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -1646,19 +1646,19 @@
         <v>108750</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90400</v>
+        <v>89672</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>130436</v>
+        <v>130948</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07982500563228286</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06635613733013883</v>
+        <v>0.06582122551779791</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09574370780029923</v>
+        <v>0.0961193245908316</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>4630</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1042</v>
+        <v>1592</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11600</v>
+        <v>11931</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006824381739630602</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001535796668121763</v>
+        <v>0.002345783755860034</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01709677843470106</v>
+        <v>0.01758393780290208</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1696,19 +1696,19 @@
         <v>10851</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5545</v>
+        <v>5363</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19221</v>
+        <v>19587</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0158676671165298</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.008108071181136465</v>
+        <v>0.00784250806705269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0281072680188589</v>
+        <v>0.02864217962401039</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1717,19 +1717,19 @@
         <v>15481</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9158</v>
+        <v>8012</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26104</v>
+        <v>25765</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01136372175083146</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006722049399834127</v>
+        <v>0.005880840907581612</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01916116312340515</v>
+        <v>0.01891215826740328</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>8148</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4007</v>
+        <v>3112</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16863</v>
+        <v>16453</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01200932929016273</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.005905363693107865</v>
+        <v>0.004586207404964044</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02485304375743062</v>
+        <v>0.0242492921077572</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -1767,19 +1767,19 @@
         <v>27585</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>18814</v>
+        <v>18762</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>39456</v>
+        <v>39133</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04033830841903748</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02751278328292673</v>
+        <v>0.02743588443581245</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05769754712561979</v>
+        <v>0.05722464275720242</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -1788,19 +1788,19 @@
         <v>35733</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26253</v>
+        <v>25653</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>49446</v>
+        <v>48523</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02622925745528145</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01927013165396387</v>
+        <v>0.01882988927959129</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03629449310994347</v>
+        <v>0.03561734032449218</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>201926</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>177840</v>
+        <v>177527</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>225561</v>
+        <v>225652</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2976028479185736</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.262103902345545</v>
+        <v>0.261642923674271</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3324357854615053</v>
+        <v>0.332570215505834</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>157</v>
@@ -1838,19 +1838,19 @@
         <v>149724</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>129084</v>
+        <v>128499</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>171731</v>
+        <v>171968</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2189449042287424</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1887633176697814</v>
+        <v>0.1879070915080557</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2511274623707398</v>
+        <v>0.2514743764327877</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>349</v>
@@ -1859,19 +1859,19 @@
         <v>351650</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>322724</v>
+        <v>319860</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>387362</v>
+        <v>385075</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2581199458416225</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2368875693852996</v>
+        <v>0.2347852764154961</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2843334751110254</v>
+        <v>0.2826547927932896</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>441439</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>416349</v>
+        <v>417211</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>467488</v>
+        <v>466177</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6506008823346462</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6136234349376871</v>
+        <v>0.6148938073486604</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6889932150540324</v>
+        <v>0.6870602047687919</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>416</v>
@@ -1909,19 +1909,19 @@
         <v>409297</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>385079</v>
+        <v>383460</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>434368</v>
+        <v>433700</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5985270687578385</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5631117213108858</v>
+        <v>0.5607444415268569</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6351892241558957</v>
+        <v>0.6342119060275738</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>832</v>
@@ -1930,19 +1930,19 @@
         <v>850736</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>815257</v>
+        <v>813900</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>886225</v>
+        <v>886948</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6244620693199817</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5984199161602557</v>
+        <v>0.5974237455577098</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6505116794655558</v>
+        <v>0.6510425158563388</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>33382</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24364</v>
+        <v>23367</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46800</v>
+        <v>45472</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03542888769215972</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02585814367554227</v>
+        <v>0.0248001468765611</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04966941585113784</v>
+        <v>0.04826034412205068</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>112</v>
@@ -2055,19 +2055,19 @@
         <v>120967</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>101917</v>
+        <v>100538</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>143520</v>
+        <v>143455</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1164703112887828</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09812852151411337</v>
+        <v>0.09679987495138137</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1381847629150294</v>
+        <v>0.1381218003671208</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>150</v>
@@ -2076,19 +2076,19 @@
         <v>154349</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>129844</v>
+        <v>133183</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>179388</v>
+        <v>179853</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0779213888615025</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06555012096906318</v>
+        <v>0.06723586103737124</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09056205385285683</v>
+        <v>0.09079654938791498</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>22805</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>14455</v>
+        <v>14880</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33691</v>
+        <v>33893</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0242036845381268</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01534158587453131</v>
+        <v>0.01579283696041421</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03575713825317725</v>
+        <v>0.03597145807730493</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>37</v>
@@ -2126,19 +2126,19 @@
         <v>39287</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27806</v>
+        <v>29038</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>52528</v>
+        <v>53930</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03782679036116782</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02677220146827726</v>
+        <v>0.02795888535113036</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05057562462202832</v>
+        <v>0.05192496218479529</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>59</v>
@@ -2147,19 +2147,19 @@
         <v>62093</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>47884</v>
+        <v>47554</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>79906</v>
+        <v>78889</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03134669627736989</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02417383621809851</v>
+        <v>0.02400701720285205</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04033935227010667</v>
+        <v>0.03982634997726477</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>17409</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10091</v>
+        <v>10792</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27878</v>
+        <v>28607</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01847607440422293</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01070976702866341</v>
+        <v>0.01145333822152288</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02958704785663341</v>
+        <v>0.03036141580945524</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -2197,19 +2197,19 @@
         <v>32233</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22753</v>
+        <v>21915</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>45122</v>
+        <v>44129</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03103430877880098</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02190731053313655</v>
+        <v>0.02110040074365335</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04344465349622442</v>
+        <v>0.04248814265377547</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>47</v>
@@ -2218,19 +2218,19 @@
         <v>49641</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>36899</v>
+        <v>36563</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>65339</v>
+        <v>67012</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02506074141973269</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01862821237951924</v>
+        <v>0.01845839214015664</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03298547824493982</v>
+        <v>0.03382998865968625</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>368525</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>338179</v>
+        <v>340424</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>398232</v>
+        <v>395534</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3911231382497954</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3589166823862484</v>
+        <v>0.3612987883798584</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4226517250691647</v>
+        <v>0.4197884572247872</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>311</v>
@@ -2268,19 +2268,19 @@
         <v>319257</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>290134</v>
+        <v>289790</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>352643</v>
+        <v>351905</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3073885192966979</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2793480421823656</v>
+        <v>0.2790162323324022</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3395325419558738</v>
+        <v>0.3388222800872903</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>697</v>
@@ -2289,19 +2289,19 @@
         <v>687782</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>647133</v>
+        <v>644463</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>732165</v>
+        <v>727833</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3472185122465667</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3266973568431215</v>
+        <v>0.3253491563232867</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3696246292610786</v>
+        <v>0.367437787001248</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>500101</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>468848</v>
+        <v>472957</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>527246</v>
+        <v>531160</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5307682151156952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4975977022983327</v>
+        <v>0.5019596121409954</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5595772520367839</v>
+        <v>0.5637317075241441</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>507</v>
@@ -2339,19 +2339,19 @@
         <v>526867</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>495498</v>
+        <v>493867</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>559208</v>
+        <v>561575</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5072800702745506</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4770767921667026</v>
+        <v>0.4755066521803847</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5384185852004578</v>
+        <v>0.5406979701811375</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1038</v>
@@ -2360,19 +2360,19 @@
         <v>1026969</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>979789</v>
+        <v>986962</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1065414</v>
+        <v>1073064</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5184526611948282</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4946345494177166</v>
+        <v>0.4982559317933778</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5378613032323702</v>
+        <v>0.5417233678171918</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>112318</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>92859</v>
+        <v>94398</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>135301</v>
+        <v>133780</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03427941801213355</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02834066411905867</v>
+        <v>0.02881010896621734</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0412938853736085</v>
+        <v>0.04082947678108979</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>379</v>
@@ -2485,19 +2485,19 @@
         <v>400873</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>367680</v>
+        <v>364454</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>440502</v>
+        <v>438337</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1186298010945111</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1088067802814789</v>
+        <v>0.1078522898758621</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1303571332623971</v>
+        <v>0.1297163135913983</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>494</v>
@@ -2506,19 +2506,19 @@
         <v>513192</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>470699</v>
+        <v>473486</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>557572</v>
+        <v>557635</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0771050933707665</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07072080002441636</v>
+        <v>0.07113952690138182</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08377314539892755</v>
+        <v>0.08378254683235067</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>38468</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26988</v>
+        <v>27222</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52040</v>
+        <v>52769</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01174043101718946</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008236582861785304</v>
+        <v>0.008308276283631701</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01588256297075438</v>
+        <v>0.01610499902714896</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>59</v>
@@ -2556,19 +2556,19 @@
         <v>64176</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50399</v>
+        <v>48923</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>81574</v>
+        <v>81491</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01899153474435078</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01491451223015565</v>
+        <v>0.01447781328721775</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02414004310448408</v>
+        <v>0.02411560330150641</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>95</v>
@@ -2577,19 +2577,19 @@
         <v>102644</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>83275</v>
+        <v>84301</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>125854</v>
+        <v>127459</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01542190112868751</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01251182172170858</v>
+        <v>0.01266587491916154</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01890907702070916</v>
+        <v>0.01915022030763902</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>49985</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36116</v>
+        <v>35179</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>66549</v>
+        <v>66927</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01525554610678865</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01102257162161419</v>
+        <v>0.01073662468773123</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02031086385663123</v>
+        <v>0.02042622969815707</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>90</v>
@@ -2627,19 +2627,19 @@
         <v>95793</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>78043</v>
+        <v>76907</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>115912</v>
+        <v>115974</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02834792339884562</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02309501447273789</v>
+        <v>0.02275896568152194</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03430154660613165</v>
+        <v>0.03431989314009779</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>134</v>
@@ -2648,19 +2648,19 @@
         <v>145779</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>122358</v>
+        <v>120595</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>174504</v>
+        <v>171289</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02190269907863459</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01838390247325514</v>
+        <v>0.01811891288492099</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0262186105018993</v>
+        <v>0.0257355433757082</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>1107949</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1051514</v>
+        <v>1055662</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1164804</v>
+        <v>1167943</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3381456253438981</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3209218873350679</v>
+        <v>0.3221877466080272</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3554977128188667</v>
+        <v>0.3564557422683415</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>848</v>
@@ -2698,19 +2698,19 @@
         <v>843738</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>792905</v>
+        <v>794313</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>896635</v>
+        <v>891968</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2496859709560496</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2346430628003938</v>
+        <v>0.2350596959324656</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2653398001637662</v>
+        <v>0.263958563880833</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1937</v>
@@ -2719,19 +2719,19 @@
         <v>1951687</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1882763</v>
+        <v>1885492</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2030853</v>
+        <v>2030024</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2932336249152678</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2828780671727406</v>
+        <v>0.2832881304049384</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.305128021738064</v>
+        <v>0.30500338303815</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>1967823</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1909377</v>
+        <v>1906301</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2025472</v>
+        <v>2018984</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6005789795199902</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5827412827188759</v>
+        <v>0.5818025209049084</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6181734256498295</v>
+        <v>0.616193310552715</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1921</v>
@@ -2769,19 +2769,19 @@
         <v>1974616</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1914496</v>
+        <v>1917778</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2030835</v>
+        <v>2030138</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5843447698062429</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5665534772546935</v>
+        <v>0.5675246437241782</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6009816449514422</v>
+        <v>0.6007751934844214</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3851</v>
@@ -2790,19 +2790,19 @@
         <v>3942440</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3856536</v>
+        <v>3855589</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4022751</v>
+        <v>4021172</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5923366815066435</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5794299439991359</v>
+        <v>0.5792877759517738</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6044032266404372</v>
+        <v>0.6041659189037235</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>28221</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18906</v>
+        <v>19302</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40708</v>
+        <v>41516</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04011728199112977</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02687532963164171</v>
+        <v>0.02743831101748581</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05786792721775723</v>
+        <v>0.05901574489771597</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>88</v>
@@ -3155,19 +3155,19 @@
         <v>93899</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76284</v>
+        <v>76976</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>111225</v>
+        <v>113567</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1348905486386884</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1095858678749759</v>
+        <v>0.1105793502902066</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.159781033868722</v>
+        <v>0.1631445359504459</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>115</v>
@@ -3176,19 +3176,19 @@
         <v>122120</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102311</v>
+        <v>100319</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143792</v>
+        <v>144282</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08725479545647488</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07310106031406761</v>
+        <v>0.07167812892080182</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.102739453820405</v>
+        <v>0.1030895761255763</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>12048</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6089</v>
+        <v>6167</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20201</v>
+        <v>20936</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01712600595676794</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008655731521503573</v>
+        <v>0.00876590060157831</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02871619415354885</v>
+        <v>0.02976070689609664</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -3226,19 +3226,19 @@
         <v>14878</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8373</v>
+        <v>8710</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25056</v>
+        <v>23515</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0213733884341075</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01202779347281404</v>
+        <v>0.01251213069118496</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03599373506721083</v>
+        <v>0.03378000483118604</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -3247,19 +3247,19 @@
         <v>26926</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18350</v>
+        <v>17718</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>39931</v>
+        <v>39772</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01923853257740882</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01311141016048107</v>
+        <v>0.01265957310316474</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02853043165332782</v>
+        <v>0.02841676735889215</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>13239</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6574</v>
+        <v>7109</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22838</v>
+        <v>22584</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0188198017070492</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009345007226324854</v>
+        <v>0.01010568990199934</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0324655166239998</v>
+        <v>0.03210346739668753</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -3297,19 +3297,19 @@
         <v>12416</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6426</v>
+        <v>5755</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23362</v>
+        <v>22420</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01783574255319571</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009230676852560328</v>
+        <v>0.008266905216309009</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03356139329628844</v>
+        <v>0.03220720619174912</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -3318,19 +3318,19 @@
         <v>25655</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15769</v>
+        <v>15961</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>37727</v>
+        <v>37217</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01833035881607062</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01126701030492619</v>
+        <v>0.01140447060040226</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02695624600424224</v>
+        <v>0.0265916282066357</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>230023</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>206847</v>
+        <v>204473</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>256005</v>
+        <v>257284</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3269845101214783</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2940385826382256</v>
+        <v>0.2906644465272984</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3639175173097775</v>
+        <v>0.3657359697281043</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -3368,19 +3368,19 @@
         <v>143999</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>123392</v>
+        <v>122114</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>165277</v>
+        <v>168468</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2068616397286918</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1772585777274592</v>
+        <v>0.1754232072850861</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2374292573815211</v>
+        <v>0.2420132726933064</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>357</v>
@@ -3389,19 +3389,19 @@
         <v>374022</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>342556</v>
+        <v>342808</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>408100</v>
+        <v>409734</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2672388284442525</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2447565887254289</v>
+        <v>0.244936472340927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2915873895576171</v>
+        <v>0.2927550354428759</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>419938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>391440</v>
+        <v>391207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>444067</v>
+        <v>446006</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5969524002235748</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5564425466680017</v>
+        <v>0.5561112065435484</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6312536820338674</v>
+        <v>0.634009360268786</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>402</v>
@@ -3439,19 +3439,19 @@
         <v>430920</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>405124</v>
+        <v>403422</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>458029</v>
+        <v>456711</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6190386806453166</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5819823073907175</v>
+        <v>0.5795364038654967</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6579830606807675</v>
+        <v>0.6560895745190238</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>804</v>
@@ -3460,19 +3460,19 @@
         <v>850857</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>812538</v>
+        <v>815080</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>888245</v>
+        <v>887368</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6079374847057931</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5805584595345594</v>
+        <v>0.5823748365957135</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6346514319174883</v>
+        <v>0.6340247045129671</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>36483</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24773</v>
+        <v>26030</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50191</v>
+        <v>51496</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03595942785589973</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02441759812837932</v>
+        <v>0.02565645845076473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04947079404413677</v>
+        <v>0.05075746721636867</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>101</v>
@@ -3585,19 +3585,19 @@
         <v>109834</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88683</v>
+        <v>92386</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129672</v>
+        <v>133150</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1064094872636244</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08591737858181771</v>
+        <v>0.08950570134759135</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1256291934638524</v>
+        <v>0.1289978559254638</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -3606,19 +3606,19 @@
         <v>146317</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>122930</v>
+        <v>123172</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173830</v>
+        <v>169955</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07148781994529625</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06006137346276139</v>
+        <v>0.06017962065779452</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08493036013764245</v>
+        <v>0.08303699146417598</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>21849</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13532</v>
+        <v>13427</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>33059</v>
+        <v>33553</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02153576210243084</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01333800617658273</v>
+        <v>0.01323452835466975</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03258436761918194</v>
+        <v>0.03307133508536975</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -3656,19 +3656,19 @@
         <v>30511</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20767</v>
+        <v>20831</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43850</v>
+        <v>42300</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02956002769911687</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02011965841962118</v>
+        <v>0.02018143061266214</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04248306459117411</v>
+        <v>0.04098066745163995</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>48</v>
@@ -3677,19 +3677,19 @@
         <v>52361</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>39271</v>
+        <v>40248</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68771</v>
+        <v>69371</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02558244789297905</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01918686045386987</v>
+        <v>0.0196644983015455</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03360038862673428</v>
+        <v>0.03389345264849226</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>18874</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10602</v>
+        <v>11332</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29199</v>
+        <v>29162</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01860276355690699</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01044954050181281</v>
+        <v>0.01116919766713833</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02878009791791184</v>
+        <v>0.0287436870109308</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -3727,19 +3727,19 @@
         <v>15179</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8588</v>
+        <v>8541</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24965</v>
+        <v>24527</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01470535020624121</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008319944986390873</v>
+        <v>0.008274813778488804</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.02418657466818528</v>
+        <v>0.02376193323914069</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -3748,19 +3748,19 @@
         <v>34052</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>23224</v>
+        <v>23573</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>47913</v>
+        <v>48990</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01663727437462647</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01134661754742748</v>
+        <v>0.0115175723135026</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02340934623430804</v>
+        <v>0.02393542774482973</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>329741</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>299847</v>
+        <v>300932</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>362424</v>
+        <v>358320</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3250100742964486</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2955451569415011</v>
+        <v>0.2966139107311423</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3572239559498222</v>
+        <v>0.3531784567773503</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -3798,19 +3798,19 @@
         <v>239708</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>212539</v>
+        <v>211016</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>270810</v>
+        <v>265783</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2322337669153606</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2059116765738693</v>
+        <v>0.2044364095380252</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2623662178792591</v>
+        <v>0.2574953026563507</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>529</v>
@@ -3819,19 +3819,19 @@
         <v>569449</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>530705</v>
+        <v>529247</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>615817</v>
+        <v>611408</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2782224199927782</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2592925743234973</v>
+        <v>0.2585801127997621</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3008770904111617</v>
+        <v>0.2987224752612985</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>607610</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>572560</v>
+        <v>577984</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>639560</v>
+        <v>638505</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5988919721883138</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5643445146625046</v>
+        <v>0.5696909429027369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6303835088054174</v>
+        <v>0.6293432633882419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>574</v>
@@ -3869,19 +3869,19 @@
         <v>636952</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>603711</v>
+        <v>605514</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>667401</v>
+        <v>669108</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6170913679156569</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5848868683021302</v>
+        <v>0.5866336562425857</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6465912787778809</v>
+        <v>0.6482452586919372</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1132</v>
@@ -3890,19 +3890,19 @@
         <v>1244562</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1197860</v>
+        <v>1195346</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1290073</v>
+        <v>1290537</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.60807003779432</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5852524963896726</v>
+        <v>0.5840238538268486</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6303057235157786</v>
+        <v>0.6305328731448134</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>18987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11419</v>
+        <v>11366</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30898</v>
+        <v>30038</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02506077696258683</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01507271238095383</v>
+        <v>0.01500177117074887</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04078271173943347</v>
+        <v>0.03964729059913354</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -4015,19 +4015,19 @@
         <v>83770</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67012</v>
+        <v>67401</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103238</v>
+        <v>102077</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1077883522356333</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08622555398837818</v>
+        <v>0.0867261099685766</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1328382734192761</v>
+        <v>0.1313440587337073</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>92</v>
@@ -4036,19 +4036,19 @@
         <v>102757</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83994</v>
+        <v>84584</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>123080</v>
+        <v>125753</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06695146848366963</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05472642596913504</v>
+        <v>0.05511055361510978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08019312135684696</v>
+        <v>0.08193448331469488</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>24383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14314</v>
+        <v>15455</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37984</v>
+        <v>39013</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03218392877339372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01889313344513523</v>
+        <v>0.02039976072635976</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05013552110399651</v>
+        <v>0.05149440819975851</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -4086,19 +4086,19 @@
         <v>36891</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26758</v>
+        <v>26094</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51989</v>
+        <v>50676</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04746752706766239</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03443013115302457</v>
+        <v>0.03357582470772111</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06689540921430227</v>
+        <v>0.06520535051644696</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>52</v>
@@ -4107,19 +4107,19 @@
         <v>61274</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>46883</v>
+        <v>46724</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79730</v>
+        <v>82733</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03992307136719282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03054695935531998</v>
+        <v>0.03044282673148403</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05194808654817782</v>
+        <v>0.05390474572992929</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>9903</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4942</v>
+        <v>5064</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17523</v>
+        <v>17819</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01307167547760846</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.006523548463192468</v>
+        <v>0.006683453052460665</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02312909769568541</v>
+        <v>0.0235194831319686</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -4157,19 +4157,19 @@
         <v>17450</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9788</v>
+        <v>9325</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>28900</v>
+        <v>30056</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02245372623475643</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01259478839681245</v>
+        <v>0.01199876504287352</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.03718646243347269</v>
+        <v>0.03867288789377876</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>24</v>
@@ -4178,19 +4178,19 @@
         <v>27354</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18064</v>
+        <v>18433</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>40855</v>
+        <v>41225</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01782245649355921</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0117697574163608</v>
+        <v>0.01200993116432008</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.02661920961991859</v>
+        <v>0.02686052503955989</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>258010</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>231268</v>
+        <v>231150</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>285491</v>
+        <v>287085</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3405518534551764</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3052549473163584</v>
+        <v>0.3050992960462529</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.376825150390505</v>
+        <v>0.3789290135671712</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>156</v>
@@ -4228,19 +4228,19 @@
         <v>167141</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>144219</v>
+        <v>144487</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>191651</v>
+        <v>190768</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2150623123051229</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1855680815051406</v>
+        <v>0.1859139131655469</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2466004947017021</v>
+        <v>0.2454633516130602</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>398</v>
@@ -4249,19 +4249,19 @@
         <v>425151</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>391607</v>
+        <v>388623</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>461770</v>
+        <v>460958</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2770078218540006</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2551520838422132</v>
+        <v>0.2532082302521133</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3008672283089687</v>
+        <v>0.3003378588539063</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>446340</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>418927</v>
+        <v>412114</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>475247</v>
+        <v>471694</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5891317653312346</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5529496571019975</v>
+        <v>0.5439565294272029</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6272874658212693</v>
+        <v>0.6225966467275218</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>426</v>
@@ -4299,19 +4299,19 @@
         <v>471922</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>444061</v>
+        <v>443429</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>500002</v>
+        <v>496767</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.607228082156825</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.571379468057698</v>
+        <v>0.5705662479671637</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6433594798815674</v>
+        <v>0.6391965477730498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>828</v>
@@ -4320,19 +4320,19 @@
         <v>918262</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>880848</v>
+        <v>875630</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>963048</v>
+        <v>958688</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5982951818015777</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5739182192220786</v>
+        <v>0.5705182023829358</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6274759505714889</v>
+        <v>0.6246349410095414</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>39017</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26433</v>
+        <v>27580</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>52232</v>
+        <v>51952</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04132291617623782</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02799547831384966</v>
+        <v>0.02921014705793498</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0553194260739292</v>
+        <v>0.05502281048775851</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>134</v>
@@ -4445,19 +4445,19 @@
         <v>139554</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>117792</v>
+        <v>118663</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>165001</v>
+        <v>164011</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1326682611419477</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1119801074800887</v>
+        <v>0.1128078710895862</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1568593715118575</v>
+        <v>0.1559188462140539</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>171</v>
@@ -4466,19 +4466,19 @@
         <v>178571</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>154575</v>
+        <v>152784</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>208183</v>
+        <v>204945</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08946007672127099</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0774385585939653</v>
+        <v>0.07654172496912826</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1042952501640666</v>
+        <v>0.1026728664193435</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>25226</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15647</v>
+        <v>15118</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>40464</v>
+        <v>39175</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02671710214716309</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01657222999462029</v>
+        <v>0.01601171082971012</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04285556358547239</v>
+        <v>0.04149088135527622</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>33</v>
@@ -4516,19 +4516,19 @@
         <v>34121</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24590</v>
+        <v>24895</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>48468</v>
+        <v>48876</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03243729125161743</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.023376992020727</v>
+        <v>0.02366689680373452</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04607661855132177</v>
+        <v>0.0464640808503038</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>53</v>
@@ -4537,19 +4537,19 @@
         <v>59347</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>44815</v>
+        <v>43578</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>76013</v>
+        <v>76285</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02973152681623006</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02245147262164685</v>
+        <v>0.02183167166112947</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03808082131579948</v>
+        <v>0.03821733588847472</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>13066</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7133</v>
+        <v>7694</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21545</v>
+        <v>21654</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01383808823623512</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007554883847962167</v>
+        <v>0.008148867891989077</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02281876742611287</v>
+        <v>0.02293437349959768</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -4587,19 +4587,19 @@
         <v>33884</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23830</v>
+        <v>24307</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>47498</v>
+        <v>46678</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03221263207928131</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02265450083270729</v>
+        <v>0.02310799982635617</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04515449646392682</v>
+        <v>0.04437537353950916</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>46</v>
@@ -4608,19 +4608,19 @@
         <v>46950</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>33292</v>
+        <v>34632</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>60819</v>
+        <v>62672</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02352110347085377</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01667863445427772</v>
+        <v>0.01734985875548277</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03046915096651843</v>
+        <v>0.03139710331249003</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>327787</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>298852</v>
+        <v>300136</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>359107</v>
+        <v>359895</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3471612775535704</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3165166513037476</v>
+        <v>0.3178758900620186</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3803321716994605</v>
+        <v>0.3811673655955004</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>270</v>
@@ -4658,19 +4658,19 @@
         <v>285869</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>253890</v>
+        <v>255510</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>315260</v>
+        <v>316387</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2717645616403602</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2413625808450064</v>
+        <v>0.2429030130133728</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2997045515905836</v>
+        <v>0.3007761652558965</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>598</v>
@@ -4679,19 +4679,19 @@
         <v>613656</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>574138</v>
+        <v>572926</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>656817</v>
+        <v>654754</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3074287239150145</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2876308545223392</v>
+        <v>0.2870238734602549</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3290513594386</v>
+        <v>0.328017866983625</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>539096</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>507855</v>
+        <v>507066</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>570911</v>
+        <v>571100</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5709606158867936</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5378727409808031</v>
+        <v>0.5370368259842605</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6046557201506191</v>
+        <v>0.6048554196044249</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>533</v>
@@ -4729,19 +4729,19 @@
         <v>558472</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>524464</v>
+        <v>526183</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>592494</v>
+        <v>592973</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5309172538867934</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4985865629941167</v>
+        <v>0.5002207045680764</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5632604282921609</v>
+        <v>0.563715674991707</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1041</v>
@@ -4750,19 +4750,19 @@
         <v>1097569</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1051879</v>
+        <v>1046588</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1142800</v>
+        <v>1136284</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5498585690766307</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5269689526494403</v>
+        <v>0.5243180259433091</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5725181769027393</v>
+        <v>0.56925413704657</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>122708</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>102844</v>
+        <v>99660</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>149744</v>
+        <v>144700</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03588106561956832</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03007264344188568</v>
+        <v>0.02914182429593009</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04378690976341744</v>
+        <v>0.04231188169725238</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>399</v>
@@ -4875,19 +4875,19 @@
         <v>427057</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>388175</v>
+        <v>390043</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>462626</v>
+        <v>465231</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1200485607313972</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1091186429188758</v>
+        <v>0.1096435268321032</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.130047168022033</v>
+        <v>0.1307793487786586</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>511</v>
@@ -4896,19 +4896,19 @@
         <v>549765</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>500990</v>
+        <v>505371</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>597775</v>
+        <v>598329</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0787943295758993</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07180379957576652</v>
+        <v>0.07243162259839622</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08567536640481382</v>
+        <v>0.08575467622047557</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>83506</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>64304</v>
+        <v>64767</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>105392</v>
+        <v>104569</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02441816261152345</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01880329111590428</v>
+        <v>0.01893867019052979</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03081790055361132</v>
+        <v>0.03057728608104065</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>108</v>
@@ -4946,19 +4946,19 @@
         <v>116401</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>97189</v>
+        <v>96369</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>141114</v>
+        <v>139581</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03272107867903363</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02732034543562189</v>
+        <v>0.02709007369668408</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03966818483293991</v>
+        <v>0.0392371848307571</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>178</v>
@@ -4967,19 +4967,19 @@
         <v>199907</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>170697</v>
+        <v>172962</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>233244</v>
+        <v>229436</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02865145039487641</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02446499009980628</v>
+        <v>0.02478949587146443</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03342934330669595</v>
+        <v>0.03288357137085213</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>55082</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>40538</v>
+        <v>40912</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72096</v>
+        <v>71594</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01610657464095304</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01185365969060214</v>
+        <v>0.01196323408414769</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02108162133826101</v>
+        <v>0.02093492421403648</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>71</v>
@@ -5017,19 +5017,19 @@
         <v>78929</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61060</v>
+        <v>60941</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>99111</v>
+        <v>99060</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02218752487133968</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01716445384151898</v>
+        <v>0.01713086870503596</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.02786082682107116</v>
+        <v>0.0278463954857876</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>123</v>
@@ -5038,19 +5038,19 @@
         <v>134011</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>111590</v>
+        <v>112387</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>159612</v>
+        <v>159125</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01920698082501707</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01599349447048401</v>
+        <v>0.01610778507381522</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02287622641813724</v>
+        <v>0.02280640210771575</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>1145562</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1090458</v>
+        <v>1091422</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1202844</v>
+        <v>1203155</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3349750858647661</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.318862187234917</v>
+        <v>0.3191438729588759</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3517248872151852</v>
+        <v>0.3518158259798723</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>784</v>
@@ -5088,19 +5088,19 @@
         <v>836717</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>785603</v>
+        <v>787687</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>888278</v>
+        <v>892548</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2352065963875538</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2208381987909465</v>
+        <v>0.2214240925738779</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2497007982615719</v>
+        <v>0.2509009865831153</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1882</v>
@@ -5109,19 +5109,19 @@
         <v>1982279</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1908644</v>
+        <v>1908641</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2058691</v>
+        <v>2060751</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.28410756844879</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2735539399698604</v>
+        <v>0.273553555364885</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.295059275188305</v>
+        <v>0.2953544624079379</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>2012984</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1956290</v>
+        <v>1953092</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2067425</v>
+        <v>2074125</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5886191112631891</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5720409948085338</v>
+        <v>0.5711058447423017</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6045380781158152</v>
+        <v>0.6064971800803309</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1935</v>
@@ -5159,19 +5159,19 @@
         <v>2098266</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2041471</v>
+        <v>2040565</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2156725</v>
+        <v>2161596</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5898362393306756</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5738709264209676</v>
+        <v>0.5736162539008312</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6062695307864424</v>
+        <v>0.6076386534594468</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3805</v>
@@ -5180,19 +5180,19 @@
         <v>4111250</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4031764</v>
+        <v>4029376</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4198258</v>
+        <v>4193342</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5892396707554173</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5778474845349868</v>
+        <v>0.577505132361902</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6017099305479017</v>
+        <v>0.6010053772519454</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>28809</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20560</v>
+        <v>19462</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40317</v>
+        <v>39630</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04269196577336182</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03046870644098382</v>
+        <v>0.02884133948057478</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05974657361041032</v>
+        <v>0.05872850970650185</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -5545,19 +5545,19 @@
         <v>91584</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73076</v>
+        <v>74690</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112088</v>
+        <v>111643</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1361158238011518</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1086088162619658</v>
+        <v>0.1110066896452526</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.166589748512685</v>
+        <v>0.1659286407679602</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -5566,19 +5566,19 @@
         <v>120393</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101186</v>
+        <v>101093</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143898</v>
+        <v>145583</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08933592244159211</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07508399260240918</v>
+        <v>0.0750151005921962</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1067777290974455</v>
+        <v>0.1080284402026693</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>14411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7959</v>
+        <v>7949</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24298</v>
+        <v>24158</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02135647753263835</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01179405597616874</v>
+        <v>0.01177949495746889</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03600776696728936</v>
+        <v>0.0358000064708954</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -5616,19 +5616,19 @@
         <v>24372</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15733</v>
+        <v>15175</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>36853</v>
+        <v>35535</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03622292232654931</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02338334943586425</v>
+        <v>0.0225531059801849</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05477225117117834</v>
+        <v>0.05281371974111852</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -5637,19 +5637,19 @@
         <v>38784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28128</v>
+        <v>27546</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>53612</v>
+        <v>53700</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02877888355842624</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02087177207498832</v>
+        <v>0.02043999156366463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03978222990695057</v>
+        <v>0.03984746007729379</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>23372</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14893</v>
+        <v>15361</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>34860</v>
+        <v>35137</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03463558900850895</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02207064891023535</v>
+        <v>0.0227633538512101</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05165901988129367</v>
+        <v>0.05206983828060186</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -5687,19 +5687,19 @@
         <v>15854</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9143</v>
+        <v>9453</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24178</v>
+        <v>24404</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02356215192073365</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01358826236574942</v>
+        <v>0.01404911989498941</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03593473644933724</v>
+        <v>0.03626994156466996</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -5708,19 +5708,19 @@
         <v>39226</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28395</v>
+        <v>28037</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>54445</v>
+        <v>52832</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02910692715923139</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02107048611093199</v>
+        <v>0.02080478068579701</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0404004994299602</v>
+        <v>0.03920303967016964</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>227754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>203762</v>
+        <v>206037</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>249924</v>
+        <v>252495</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3375129166858857</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3019589971631257</v>
+        <v>0.3053306838080203</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3703673914417265</v>
+        <v>0.374177841827138</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>158</v>
@@ -5758,19 +5758,19 @@
         <v>149328</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>131561</v>
+        <v>129209</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>172921</v>
+        <v>173035</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2219372422097811</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1955306983996268</v>
+        <v>0.1920358866625878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2570027508184026</v>
+        <v>0.2571717852556595</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>378</v>
@@ -5779,19 +5779,19 @@
         <v>377082</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>346173</v>
+        <v>346643</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>408978</v>
+        <v>410212</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.279809168778565</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2568738085044784</v>
+        <v>0.2572223113816801</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3034776769567302</v>
+        <v>0.3043931191793699</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>380454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>353456</v>
+        <v>354406</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>403638</v>
+        <v>405353</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5638030509996051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5237941595979227</v>
+        <v>0.5252013663749691</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5981590964587614</v>
+        <v>0.6007010875469432</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>388</v>
@@ -5829,19 +5829,19 @@
         <v>391701</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>365416</v>
+        <v>366206</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416914</v>
+        <v>418900</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5821618597417841</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5430960060594578</v>
+        <v>0.5442693187899862</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6196344400786532</v>
+        <v>0.6225863521578262</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>755</v>
@@ -5850,19 +5850,19 @@
         <v>772156</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>732715</v>
+        <v>734895</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>806444</v>
+        <v>806561</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5729690980621852</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5437024834526901</v>
+        <v>0.5453204726118943</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5984126074093036</v>
+        <v>0.5984993714658485</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>44846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33326</v>
+        <v>33676</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58435</v>
+        <v>58938</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04386252295547763</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03259449467023835</v>
+        <v>0.03293715236450567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05715312955058852</v>
+        <v>0.05764455821126398</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>97</v>
@@ -5975,19 +5975,19 @@
         <v>117004</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96265</v>
+        <v>95119</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>141804</v>
+        <v>141881</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1125139440579154</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09257096806588402</v>
+        <v>0.09146891037296796</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1363617571699673</v>
+        <v>0.1364357239987611</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -5996,19 +5996,19 @@
         <v>161851</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>137124</v>
+        <v>137772</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>185623</v>
+        <v>188915</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07847915956203093</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06648947099797647</v>
+        <v>0.06680369460551598</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0900057617608549</v>
+        <v>0.09160221577326112</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>27254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17350</v>
+        <v>17938</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39531</v>
+        <v>39916</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02665580273900657</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01696894910932399</v>
+        <v>0.01754463978095884</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03866350036408776</v>
+        <v>0.03904051106865025</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>35</v>
@@ -6046,19 +6046,19 @@
         <v>36909</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26605</v>
+        <v>26901</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>52093</v>
+        <v>50106</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03549262771311731</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02558371260301733</v>
+        <v>0.02586894833625771</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05009336319960725</v>
+        <v>0.04818266499574991</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>58</v>
@@ -6067,19 +6067,19 @@
         <v>64163</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>49950</v>
+        <v>49497</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>84390</v>
+        <v>82644</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03111166328744384</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0242200935558235</v>
+        <v>0.02400023362728356</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04091964118637143</v>
+        <v>0.04007279091082527</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>24296</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15322</v>
+        <v>15561</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>36216</v>
+        <v>36721</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02376291638767708</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01498537345067628</v>
+        <v>0.01521957880112383</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03542110148962337</v>
+        <v>0.03591508126986079</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -6117,19 +6117,19 @@
         <v>20828</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12797</v>
+        <v>12966</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32255</v>
+        <v>31275</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02002868095050666</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01230608341614161</v>
+        <v>0.012468059904868</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03101749528730324</v>
+        <v>0.03007424855863085</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>42</v>
@@ -6138,19 +6138,19 @@
         <v>45124</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>33584</v>
+        <v>33086</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>62287</v>
+        <v>61093</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02187997399470086</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.016284190309423</v>
+        <v>0.01604293533913589</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03020210006884974</v>
+        <v>0.02962327400554939</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>358146</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>327148</v>
+        <v>328594</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>390521</v>
+        <v>392373</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3502884237279997</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3199704301750894</v>
+        <v>0.3213846140511423</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3819535703476141</v>
+        <v>0.3837649881589509</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>239</v>
@@ -6188,19 +6188,19 @@
         <v>236306</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>209910</v>
+        <v>211536</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>264773</v>
+        <v>264314</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2272372765428452</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2018543094543048</v>
+        <v>0.2034177998500394</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2546116564851315</v>
+        <v>0.2541696047670041</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>571</v>
@@ -6209,19 +6209,19 @@
         <v>594452</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>553699</v>
+        <v>550964</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>635928</v>
+        <v>634504</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2882413928330086</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2684805867526719</v>
+        <v>0.2671545302304612</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3083524257487104</v>
+        <v>0.3076621671525483</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>567889</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>536104</v>
+        <v>533848</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>600788</v>
+        <v>600650</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.555430334189839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5243423179661593</v>
+        <v>0.5221355163585693</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5876070451499309</v>
+        <v>0.5874723969778786</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>583</v>
@@ -6259,19 +6259,19 @@
         <v>628862</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>594380</v>
+        <v>597438</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>659937</v>
+        <v>660909</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6047274707356155</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5715688015366729</v>
+        <v>0.5745094037170611</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6346098751995364</v>
+        <v>0.6355448898733387</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1108</v>
@@ -6280,19 +6280,19 @@
         <v>1196751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1154560</v>
+        <v>1153638</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1246584</v>
+        <v>1242358</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5802878103228157</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5598296552082273</v>
+        <v>0.5593827337391184</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6044511409036271</v>
+        <v>0.6024018023180662</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>38241</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27223</v>
+        <v>28091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53658</v>
+        <v>53142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05034673341496473</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03584118980697368</v>
+        <v>0.03698377712763869</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07064436493119901</v>
+        <v>0.06996499255314315</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -6405,19 +6405,19 @@
         <v>83526</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>66389</v>
+        <v>66771</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103040</v>
+        <v>105091</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1065593348224459</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0846969600010803</v>
+        <v>0.08518454339584267</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1314551908382694</v>
+        <v>0.1340711323018034</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>104</v>
@@ -6426,19 +6426,19 @@
         <v>121767</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101680</v>
+        <v>101239</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>147419</v>
+        <v>146672</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07889537007508483</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06588089737777449</v>
+        <v>0.06559524937630608</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09551622101146674</v>
+        <v>0.09503233501767337</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>13617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7331</v>
+        <v>6656</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23138</v>
+        <v>23420</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01792760213304108</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.009651589821202525</v>
+        <v>0.008763681999622215</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03046267621726954</v>
+        <v>0.03083347689510998</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>31</v>
@@ -6476,19 +6476,19 @@
         <v>33834</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23691</v>
+        <v>23224</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47456</v>
+        <v>47246</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04316444589021391</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03022398015868236</v>
+        <v>0.02962845767023494</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06054283692265661</v>
+        <v>0.06027514071666251</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -6497,19 +6497,19 @@
         <v>47451</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34044</v>
+        <v>33937</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64074</v>
+        <v>62003</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0307446122843603</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0220579444974275</v>
+        <v>0.02198860491930625</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04151506393543895</v>
+        <v>0.04017297637400918</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>21454</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13038</v>
+        <v>13952</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33412</v>
+        <v>33879</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02824591983910404</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01716565763960481</v>
+        <v>0.01836898943883668</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0439886682449431</v>
+        <v>0.04460439273207916</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -6547,19 +6547,19 @@
         <v>29515</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20267</v>
+        <v>20478</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40518</v>
+        <v>42653</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03765481976337039</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02585557938418213</v>
+        <v>0.02612540897065785</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05169109073429944</v>
+        <v>0.05441502329437625</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -6568,19 +6568,19 @@
         <v>50970</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>38912</v>
+        <v>38019</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>67121</v>
+        <v>67739</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03302440826667507</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02521186309539861</v>
+        <v>0.02463327696839424</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04348927609210346</v>
+        <v>0.04388943989112684</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>255246</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>228098</v>
+        <v>227086</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>282094</v>
+        <v>287594</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3360475824066709</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3003059803237033</v>
+        <v>0.2989740705916558</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3713948185969551</v>
+        <v>0.3786360581636443</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>210</v>
@@ -6618,19 +6618,19 @@
         <v>211348</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>186574</v>
+        <v>186667</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>237324</v>
+        <v>235249</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2696312050217766</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2380250170292712</v>
+        <v>0.2381431009546309</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3027704227131575</v>
+        <v>0.3001231971537283</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>442</v>
@@ -6639,19 +6639,19 @@
         <v>466594</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>425818</v>
+        <v>430935</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>503346</v>
+        <v>505258</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3023167644269426</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2758971317050888</v>
+        <v>0.2792125535919582</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3261290595560372</v>
+        <v>0.3273678893480274</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>430994</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>401082</v>
+        <v>400507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>455699</v>
+        <v>458707</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5674321622062193</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5280504038568862</v>
+        <v>0.5272933789285863</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5999579479741185</v>
+        <v>0.603917331859698</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>398</v>
@@ -6689,19 +6689,19 @@
         <v>425619</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>398029</v>
+        <v>394382</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>454447</v>
+        <v>452834</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5429901945021932</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5077926519263488</v>
+        <v>0.5031397238825377</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5797686548840765</v>
+        <v>0.5777103680109671</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>795</v>
@@ -6710,19 +6710,19 @@
         <v>856613</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>811382</v>
+        <v>818669</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>900274</v>
+        <v>898666</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5550188449469372</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5257121493239986</v>
+        <v>0.5304339994039968</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5833076696142182</v>
+        <v>0.5822657982359815</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>32140</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22370</v>
+        <v>23170</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43497</v>
+        <v>44399</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03431172275978757</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02388198375148966</v>
+        <v>0.02473619037689959</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04643668925217424</v>
+        <v>0.04739924991549359</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>116</v>
@@ -6835,19 +6835,19 @@
         <v>145300</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>121416</v>
+        <v>123184</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>170706</v>
+        <v>171719</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1392058347677883</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1163236927986593</v>
+        <v>0.1180174163389041</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1635461660852359</v>
+        <v>0.1645169516227913</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>151</v>
@@ -6856,19 +6856,19 @@
         <v>177440</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>149733</v>
+        <v>153082</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>205301</v>
+        <v>210246</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0895943935322268</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07560437424963155</v>
+        <v>0.07729536412699314</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1036620075175981</v>
+        <v>0.1061590371784425</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>34152</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23245</v>
+        <v>23910</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47099</v>
+        <v>49120</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03645952980380811</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02481532016138752</v>
+        <v>0.0255258715370793</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05028194049661302</v>
+        <v>0.05243940608749005</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>59</v>
@@ -6906,19 +6906,19 @@
         <v>65051</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50806</v>
+        <v>49965</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>83395</v>
+        <v>81913</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06232234966958432</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04867478249754184</v>
+        <v>0.04786955421261436</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07989746183553213</v>
+        <v>0.07847743864094256</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>91</v>
@@ -6927,19 +6927,19 @@
         <v>99202</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>81176</v>
+        <v>80478</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>121372</v>
+        <v>120100</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05009009236367375</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04098803481819705</v>
+        <v>0.04063546854551781</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06128425641336753</v>
+        <v>0.06064198642163302</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>27882</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18847</v>
+        <v>18308</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>40709</v>
+        <v>40260</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02976623272454268</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0201204136414488</v>
+        <v>0.01954538654247721</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04345948380458262</v>
+        <v>0.04298109784017506</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -6977,19 +6977,19 @@
         <v>38062</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28300</v>
+        <v>26086</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>52043</v>
+        <v>51000</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03646545518863125</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02711340467038298</v>
+        <v>0.02499149546962958</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04986004693000285</v>
+        <v>0.04886057549129699</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>63</v>
@@ -6998,19 +6998,19 @@
         <v>65944</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>50326</v>
+        <v>51358</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>83804</v>
+        <v>83280</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03329694481909084</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02541091146150052</v>
+        <v>0.02593183920042494</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04231514286531045</v>
+        <v>0.04205025841422467</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>322778</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>293135</v>
+        <v>293831</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>352059</v>
+        <v>351217</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3445898476492127</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3129432188476668</v>
+        <v>0.3136866430764187</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3758495907252029</v>
+        <v>0.3749503788541744</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>313</v>
@@ -7048,19 +7048,19 @@
         <v>326216</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>294326</v>
+        <v>296537</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>359690</v>
+        <v>360122</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3125340695682707</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2819814964241086</v>
+        <v>0.2840995515210507</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3446031539801673</v>
+        <v>0.3450175980751014</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>630</v>
@@ -7069,19 +7069,19 @@
         <v>648994</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>606029</v>
+        <v>611746</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>689656</v>
+        <v>692269</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3276953910197699</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3060009261722065</v>
+        <v>0.3088874995217508</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3482265421437522</v>
+        <v>0.3495461106506915</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>519750</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>486095</v>
+        <v>490454</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>551233</v>
+        <v>548414</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5548726670626489</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5189430528197799</v>
+        <v>0.5235962662162359</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5884827854113908</v>
+        <v>0.5854737813540576</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>435</v>
@@ -7119,19 +7119,19 @@
         <v>469150</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>438991</v>
+        <v>434548</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>505152</v>
+        <v>502714</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4494722908057254</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4205782840085117</v>
+        <v>0.4163218287704784</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4839647053137359</v>
+        <v>0.4816283529428976</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>955</v>
@@ -7140,19 +7140,19 @@
         <v>988900</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>942835</v>
+        <v>943223</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1035138</v>
+        <v>1033625</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4993231782652388</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.476063780885645</v>
+        <v>0.4762595815491395</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5226699715179461</v>
+        <v>0.5219060760855806</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>144036</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>122506</v>
+        <v>122165</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>168124</v>
+        <v>168067</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04244479263749171</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03610045178721714</v>
+        <v>0.03599999389907212</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04954330567146116</v>
+        <v>0.04952651028906812</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>361</v>
@@ -7265,19 +7265,19 @@
         <v>437414</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>395032</v>
+        <v>397097</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>480527</v>
+        <v>479534</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1235504232665191</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.111579220616436</v>
+        <v>0.1121626166210453</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.135727919726553</v>
+        <v>0.1354473662985865</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>513</v>
@@ -7286,19 +7286,19 @@
         <v>581450</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>536078</v>
+        <v>535794</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>631322</v>
+        <v>630264</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08385667008107858</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0773130831905272</v>
+        <v>0.07727219134252633</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09104914780556501</v>
+        <v>0.09089654467266682</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>89434</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>71206</v>
+        <v>72802</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>110374</v>
+        <v>111962</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02635453703479106</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02098325216094239</v>
+        <v>0.02145337337155312</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03252521830988891</v>
+        <v>0.0329933587449204</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>148</v>
@@ -7336,19 +7336,19 @@
         <v>160166</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>136373</v>
+        <v>131925</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>188928</v>
+        <v>185938</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04523995953286302</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03851929878072455</v>
+        <v>0.03726312848558878</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05336400109691606</v>
+        <v>0.05251924910579723</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>227</v>
@@ -7357,19 +7357,19 @@
         <v>249600</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>217510</v>
+        <v>220856</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>282775</v>
+        <v>283792</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0359972806506777</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03136924390582452</v>
+        <v>0.03185184083146318</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04078183962610804</v>
+        <v>0.0409284192238168</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>97004</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>80180</v>
+        <v>79260</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>119334</v>
+        <v>118414</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02858547251638725</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02362766280235041</v>
+        <v>0.02335639603436986</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03516574911634963</v>
+        <v>0.03489463902083323</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>101</v>
@@ -7407,19 +7407,19 @@
         <v>104259</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>86597</v>
+        <v>85616</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>125084</v>
+        <v>125215</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02944857895089312</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02445988247380512</v>
+        <v>0.02418275415064997</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03533068630358872</v>
+        <v>0.0353677112771508</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>190</v>
@@ -7428,19 +7428,19 @@
         <v>201263</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>176685</v>
+        <v>175461</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>235538</v>
+        <v>231300</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02902616766429892</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02548146792890839</v>
+        <v>0.02530491125477164</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03396921512425619</v>
+        <v>0.03335805004276667</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>1163923</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1108190</v>
+        <v>1107118</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1217677</v>
+        <v>1219525</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3429875392089136</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3265639561688529</v>
+        <v>0.32624803455375</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3588278217965327</v>
+        <v>0.3593723992727135</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>920</v>
@@ -7478,19 +7478,19 @@
         <v>923199</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>875761</v>
+        <v>871364</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>981388</v>
+        <v>978283</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2607634521542626</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2473641630938222</v>
+        <v>0.2461221595167218</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2771992876033216</v>
+        <v>0.2763221183899023</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2021</v>
@@ -7499,19 +7499,19 @@
         <v>2087122</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2010182</v>
+        <v>2009254</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2162333</v>
+        <v>2160797</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3010045869821742</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2899082659588716</v>
+        <v>0.2897744406330313</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3118513908966278</v>
+        <v>0.3116299098716705</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>1899088</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1839435</v>
+        <v>1844886</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1957507</v>
+        <v>1959352</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5596276586024165</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5420490837648664</v>
+        <v>0.5436552437516522</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5768426020569243</v>
+        <v>0.5773863681107062</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1804</v>
@@ -7549,19 +7549,19 @@
         <v>1915332</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1855161</v>
+        <v>1855572</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1977938</v>
+        <v>1978680</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5409975860954621</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5240018572400321</v>
+        <v>0.5241178442305424</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5586809212393903</v>
+        <v>0.5588905127723686</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3613</v>
@@ -7570,19 +7570,19 @@
         <v>3814420</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3733535</v>
+        <v>3728415</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3892094</v>
+        <v>3899777</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5501152946217706</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5384499696925119</v>
+        <v>0.5377116186842859</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5613173755080293</v>
+        <v>0.5624254614806007</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>38496</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28420</v>
+        <v>30093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48839</v>
+        <v>51013</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.055734368233161</v>
+        <v>0.05573436823316098</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04114656520739687</v>
+        <v>0.04356880955879363</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07070870615087833</v>
+        <v>0.0738559117929464</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>272</v>
@@ -7935,19 +7935,19 @@
         <v>119985</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105319</v>
+        <v>106412</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>133460</v>
+        <v>134400</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1640743069712401</v>
+        <v>0.16407430697124</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.144019191151369</v>
+        <v>0.1455143225596992</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1825010405825639</v>
+        <v>0.1837866722938409</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>338</v>
@@ -7956,19 +7956,19 @@
         <v>158481</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>140077</v>
+        <v>141598</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>177261</v>
+        <v>177519</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1114500494623768</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09850748464707196</v>
+        <v>0.09957698989746117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1246563977325712</v>
+        <v>0.1248376950067267</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>31967</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22066</v>
+        <v>21242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45297</v>
+        <v>42985</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04628168306365595</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03194702203101564</v>
+        <v>0.03075320325040795</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06557994666664338</v>
+        <v>0.06223305720912033</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -8006,19 +8006,19 @@
         <v>27366</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20078</v>
+        <v>20912</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35484</v>
+        <v>36338</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.03742224521089951</v>
+        <v>0.03742224521089952</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02745586255269376</v>
+        <v>0.02859650503859357</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04852239791814415</v>
+        <v>0.04969115424258824</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>82</v>
@@ -8027,19 +8027,19 @@
         <v>59334</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>48100</v>
+        <v>46385</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73010</v>
+        <v>75245</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04172556441504226</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0338254607595861</v>
+        <v>0.03262000219366341</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05134349243478823</v>
+        <v>0.05291479976118531</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>21968</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14428</v>
+        <v>14094</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32991</v>
+        <v>32940</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03180439235715171</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02088826705781828</v>
+        <v>0.02040535364723202</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04776345587468106</v>
+        <v>0.04768984948132358</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -8077,19 +8077,19 @@
         <v>19546</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12847</v>
+        <v>13442</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27425</v>
+        <v>26968</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02672871954654478</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01756776853719169</v>
+        <v>0.01838171344783398</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03750209509778269</v>
+        <v>0.03687776893023981</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -8098,19 +8098,19 @@
         <v>41514</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31301</v>
+        <v>30694</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>53237</v>
+        <v>54891</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02919414011191782</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02201223847371385</v>
+        <v>0.02158493534194014</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03743797125925701</v>
+        <v>0.03860136984899019</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>268332</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>240760</v>
+        <v>237536</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>297316</v>
+        <v>300334</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3884868925568302</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3485695431556308</v>
+        <v>0.3439008831311399</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4304503919037936</v>
+        <v>0.434819051440567</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>208</v>
@@ -8148,19 +8148,19 @@
         <v>179608</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>159148</v>
+        <v>158086</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>203675</v>
+        <v>204453</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2456065451135447</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.217627850447125</v>
+        <v>0.216175964292029</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2785166439349641</v>
+        <v>0.2795809610996058</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>424</v>
@@ -8169,19 +8169,19 @@
         <v>447940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>407013</v>
+        <v>408331</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>486544</v>
+        <v>489895</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3150082106894229</v>
+        <v>0.315008210689423</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2862267543047527</v>
+        <v>0.2871536673239738</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3421557284353264</v>
+        <v>0.3445125174106305</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>329947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>302534</v>
+        <v>300830</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>358134</v>
+        <v>360629</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4776926637892012</v>
+        <v>0.4776926637892011</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4380040230520823</v>
+        <v>0.435536933085153</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5185005356119631</v>
+        <v>0.5221132468544225</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>675</v>
@@ -8219,19 +8219,19 @@
         <v>384779</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361687</v>
+        <v>359825</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>405564</v>
+        <v>407608</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5261681831577711</v>
+        <v>0.526168183157771</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4945914445347396</v>
+        <v>0.4920452407273837</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5545915334964251</v>
+        <v>0.5573860406917893</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1065</v>
@@ -8240,19 +8240,19 @@
         <v>714726</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>678539</v>
+        <v>678516</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>749143</v>
+        <v>750778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5026220353212402</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4771741361524258</v>
+        <v>0.4771576833358894</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5268253454346995</v>
+        <v>0.5279750812714441</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>40618</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29585</v>
+        <v>30885</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52790</v>
+        <v>54646</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03880182841071877</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02826206085902998</v>
+        <v>0.02950417679652158</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05042954826293901</v>
+        <v>0.05220259334150572</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>233</v>
@@ -8365,19 +8365,19 @@
         <v>127792</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>111402</v>
+        <v>112775</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>144309</v>
+        <v>145414</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1196726062207759</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1043242574598303</v>
+        <v>0.1056103359323397</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1351401804079434</v>
+        <v>0.1361756006651934</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>291</v>
@@ -8386,19 +8386,19 @@
         <v>168410</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>149861</v>
+        <v>148490</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>189129</v>
+        <v>188734</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07963950447475113</v>
+        <v>0.07963950447475111</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07086816215907253</v>
+        <v>0.07021975107828127</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08943750533620373</v>
+        <v>0.08925085083760323</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>27567</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18767</v>
+        <v>18189</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40621</v>
+        <v>41053</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02633462824858025</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01792755782676743</v>
+        <v>0.0173758201060337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03880504619964264</v>
+        <v>0.03921704839727633</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -8436,19 +8436,19 @@
         <v>61240</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50043</v>
+        <v>49283</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74841</v>
+        <v>75172</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.05734939339745877</v>
+        <v>0.05734939339745876</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04686321334142932</v>
+        <v>0.04615223815363446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0700856820364882</v>
+        <v>0.07039614540324203</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>117</v>
@@ -8457,19 +8457,19 @@
         <v>88808</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>73117</v>
+        <v>73491</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>108017</v>
+        <v>105635</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04199629203678769</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03457626077948243</v>
+        <v>0.03475304296774543</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0510801398198568</v>
+        <v>0.04995363986176437</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>22000</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14208</v>
+        <v>14902</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32318</v>
+        <v>33083</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02101632435579488</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01357271647153697</v>
+        <v>0.01423567151673433</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03087248730137508</v>
+        <v>0.03160403669446151</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>59</v>
@@ -8507,19 +8507,19 @@
         <v>37007</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28101</v>
+        <v>28047</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47968</v>
+        <v>47355</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03465597234217261</v>
+        <v>0.0346559723421726</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02631551584085083</v>
+        <v>0.02626504492622273</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04492079141187692</v>
+        <v>0.04434592937219113</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>83</v>
@@ -8528,19 +8528,19 @@
         <v>59007</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>47573</v>
+        <v>46755</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72594</v>
+        <v>73860</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02790399801467064</v>
+        <v>0.02790399801467065</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02249691610709507</v>
+        <v>0.02211014151732722</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03432915280534687</v>
+        <v>0.03492798073944577</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>414749</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>377118</v>
+        <v>375294</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>453504</v>
+        <v>448384</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3962042198621872</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3602555548322933</v>
+        <v>0.3585134091737622</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4332267730961334</v>
+        <v>0.42833533309696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>258</v>
@@ -8578,19 +8578,19 @@
         <v>265071</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>237611</v>
+        <v>237897</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>297774</v>
+        <v>295941</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2482301419562063</v>
+        <v>0.2482301419562062</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.222515100406617</v>
+        <v>0.2227821417100962</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2788554266361205</v>
+        <v>0.277138722448187</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>538</v>
@@ -8599,19 +8599,19 @@
         <v>679820</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>633391</v>
+        <v>633076</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>728429</v>
+        <v>733963</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3214810921387039</v>
+        <v>0.321481092138704</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2995250467639782</v>
+        <v>0.2993761431402528</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.344467559898748</v>
+        <v>0.3470845274018841</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>541872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>505337</v>
+        <v>508027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>579228</v>
+        <v>579542</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5176429991227188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4827421738333372</v>
+        <v>0.4853115231910512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5533284535045184</v>
+        <v>0.5536285056181944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>870</v>
@@ -8649,19 +8649,19 @@
         <v>576734</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>545843</v>
+        <v>547353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>604295</v>
+        <v>605853</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5400918860833865</v>
+        <v>0.5400918860833864</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5111633344891372</v>
+        <v>0.5125779198014021</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5659022403010799</v>
+        <v>0.567361227413459</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1443</v>
@@ -8670,19 +8670,19 @@
         <v>1118606</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1071666</v>
+        <v>1070046</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1169635</v>
+        <v>1167648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5289791133350867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5067813713933587</v>
+        <v>0.5060153332774193</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.553110002457862</v>
+        <v>0.5521706030511973</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>32598</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>23739</v>
+        <v>23422</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45126</v>
+        <v>43985</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04073787556520581</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02966649595254398</v>
+        <v>0.02927036670656513</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0563939494596316</v>
+        <v>0.05496782051962448</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>155</v>
@@ -8795,19 +8795,19 @@
         <v>97717</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>84082</v>
+        <v>84112</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113796</v>
+        <v>113003</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1208539243392519</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1039905469353206</v>
+        <v>0.1040277900141406</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1407399630045102</v>
+        <v>0.1397590408208699</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>193</v>
@@ -8816,19 +8816,19 @@
         <v>130315</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>111830</v>
+        <v>113605</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>150655</v>
+        <v>150862</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08100414043465666</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06951341030618945</v>
+        <v>0.07061701554157279</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09364727284939479</v>
+        <v>0.09377570518642339</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>38075</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27825</v>
+        <v>27898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52786</v>
+        <v>52563</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04758229270462375</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03477335784846476</v>
+        <v>0.03486344760446975</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06596620841343971</v>
+        <v>0.06568772822980154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>76</v>
@@ -8866,19 +8866,19 @@
         <v>51949</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41225</v>
+        <v>40943</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65177</v>
+        <v>64268</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.06424895474853529</v>
+        <v>0.06424895474853527</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05098581879407551</v>
+        <v>0.05063737413047321</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08060949168613879</v>
+        <v>0.07948537289879204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>113</v>
@@ -8887,19 +8887,19 @@
         <v>90024</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74321</v>
+        <v>74680</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>108309</v>
+        <v>111023</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05595894430713228</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04619806837430505</v>
+        <v>0.04642107046751896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06732503669615059</v>
+        <v>0.06901181113869338</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>31819</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20794</v>
+        <v>22109</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46165</v>
+        <v>45469</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03976471547388958</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02598621833076728</v>
+        <v>0.02762961091463539</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05769174833096906</v>
+        <v>0.05682287769243781</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -8937,19 +8937,19 @@
         <v>30684</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22930</v>
+        <v>22455</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41738</v>
+        <v>42403</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03794894430246323</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02835901784584862</v>
+        <v>0.02777195427724661</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05161983815633852</v>
+        <v>0.05244244299549858</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>70</v>
@@ -8958,19 +8958,19 @@
         <v>62503</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>47580</v>
+        <v>48497</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>77933</v>
+        <v>79139</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.03885211027118951</v>
+        <v>0.03885211027118952</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02957581665576054</v>
+        <v>0.03014583515029051</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04844340857577053</v>
+        <v>0.0491927603056791</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>278240</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>244243</v>
+        <v>244638</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>310697</v>
+        <v>313635</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3477162813575569</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3052297871990368</v>
+        <v>0.305723361142799</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3882769914625513</v>
+        <v>0.3919490418673049</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>193</v>
@@ -9008,19 +9008,19 @@
         <v>216033</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>190510</v>
+        <v>190197</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>245191</v>
+        <v>246687</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2671837094839586</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2356177414111656</v>
+        <v>0.2352307251829174</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3032447647174023</v>
+        <v>0.3050949065550232</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>360</v>
@@ -9029,19 +9029,19 @@
         <v>494274</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>454149</v>
+        <v>450823</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>544507</v>
+        <v>542638</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3072406722966805</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2822991143862776</v>
+        <v>0.2802316021499192</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3384657696005863</v>
+        <v>0.3373040738488471</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>419461</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>385849</v>
+        <v>387241</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>450397</v>
+        <v>454002</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5241988348987239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4821948238629313</v>
+        <v>0.4839343199766161</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5628594751876027</v>
+        <v>0.5673646462813753</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>577</v>
@@ -9079,19 +9079,19 @@
         <v>412174</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>386508</v>
+        <v>384763</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>439525</v>
+        <v>437177</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.509764467125791</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4780223244469071</v>
+        <v>0.475863766523165</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5435922945081081</v>
+        <v>0.540687413301043</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>979</v>
@@ -9100,19 +9100,19 @@
         <v>831634</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>788893</v>
+        <v>788394</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>869218</v>
+        <v>874113</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.516944132690341</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4903761964130647</v>
+        <v>0.4900659119962911</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5403063975793921</v>
+        <v>0.5433487304437136</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>46302</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35500</v>
+        <v>36606</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58681</v>
+        <v>58929</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04687348267676535</v>
+        <v>0.04687348267676533</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03593780413721839</v>
+        <v>0.03705708845548796</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05940450480944304</v>
+        <v>0.05965613679513353</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>286</v>
@@ -9225,19 +9225,19 @@
         <v>167322</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>148647</v>
+        <v>149088</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>184917</v>
+        <v>188012</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1499584762582478</v>
+        <v>0.1499584762582479</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1332211175761349</v>
+        <v>0.1336166823500445</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1657273723639916</v>
+        <v>0.1685016175944825</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>351</v>
@@ -9246,19 +9246,19 @@
         <v>213624</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>192164</v>
+        <v>193237</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>237966</v>
+        <v>240245</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1015515379150497</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09135000324992096</v>
+        <v>0.0918598855497911</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1131227837249966</v>
+        <v>0.1142063099478517</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>44006</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>32546</v>
+        <v>33234</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>56225</v>
+        <v>58543</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04454839152134984</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03294793498087538</v>
+        <v>0.03364344555101197</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05691810980172794</v>
+        <v>0.05926467430734628</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>107</v>
@@ -9296,19 +9296,19 @@
         <v>68436</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>55537</v>
+        <v>56790</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>82560</v>
+        <v>81295</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.06133406514519817</v>
+        <v>0.06133406514519819</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0497733940009823</v>
+        <v>0.05089652775837034</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07399231592855714</v>
+        <v>0.07285919511525847</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>158</v>
@@ -9317,19 +9317,19 @@
         <v>112441</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>95481</v>
+        <v>94619</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>129348</v>
+        <v>129396</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.05345180178242843</v>
+        <v>0.05345180178242844</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04538931320015</v>
+        <v>0.04497938323867404</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06148884611189611</v>
+        <v>0.06151143416586662</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>23445</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15888</v>
+        <v>16020</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33900</v>
+        <v>33677</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.02373393606643237</v>
+        <v>0.02373393606643236</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01608417071706847</v>
+        <v>0.01621713429858836</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03431837558701074</v>
+        <v>0.03409197599281152</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>71</v>
@@ -9367,19 +9367,19 @@
         <v>48233</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>37731</v>
+        <v>37608</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>61486</v>
+        <v>61848</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04322781998729047</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03381546534107568</v>
+        <v>0.03370509537100015</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05510510965764544</v>
+        <v>0.05543015067001909</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>98</v>
@@ -9388,19 +9388,19 @@
         <v>71678</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>58616</v>
+        <v>57705</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>89176</v>
+        <v>86148</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0340738276917916</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02786435486234798</v>
+        <v>0.02743172351635391</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04239189644797813</v>
+        <v>0.04095258127205197</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>383909</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>348736</v>
+        <v>348691</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>418720</v>
+        <v>418635</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3886443589701367</v>
+        <v>0.3886443589701365</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3530375375661942</v>
+        <v>0.3529917679797002</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4238848637185837</v>
+        <v>0.4237983467191038</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>354</v>
@@ -9438,19 +9438,19 @@
         <v>348506</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>317035</v>
+        <v>316321</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>381855</v>
+        <v>379822</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.31234101808557</v>
+        <v>0.3123410180855701</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2841355178731507</v>
+        <v>0.2834957601893206</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3422292262486035</v>
+        <v>0.3404070302611067</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>640</v>
@@ -9459,19 +9459,19 @@
         <v>732415</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>687819</v>
+        <v>687912</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>779708</v>
+        <v>784123</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3481717533774114</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.326971910785382</v>
+        <v>0.3270159139083175</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3706532174304676</v>
+        <v>0.3727521927404665</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>490154</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>457152</v>
+        <v>456740</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>526205</v>
+        <v>523027</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4961998307653157</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4627907996831339</v>
+        <v>0.4623740514550916</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.532695647147314</v>
+        <v>0.529478308793579</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>739</v>
@@ -9509,19 +9509,19 @@
         <v>483291</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>453487</v>
+        <v>454540</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>513416</v>
+        <v>511146</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4331386205236932</v>
+        <v>0.4331386205236933</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4064276575517424</v>
+        <v>0.4073713147784241</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4601371583255396</v>
+        <v>0.458102733931913</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1313</v>
@@ -9530,19 +9530,19 @@
         <v>973445</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>931063</v>
+        <v>928266</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1016557</v>
+        <v>1015089</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4627510792333191</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4426037172798729</v>
+        <v>0.441274271915942</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4832453654703954</v>
+        <v>0.4825477082954736</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>158015</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>137639</v>
+        <v>138088</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>183579</v>
+        <v>180045</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04482021890576945</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0390406755223429</v>
+        <v>0.03916800735114601</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05207134389835704</v>
+        <v>0.05106890696072029</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>946</v>
@@ -9655,19 +9655,19 @@
         <v>512816</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>479336</v>
+        <v>484186</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>545671</v>
+        <v>548267</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1377251207480844</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1287335424697612</v>
+        <v>0.130036011789862</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1465489200469338</v>
+        <v>0.1472459904329901</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1173</v>
@@ -9676,19 +9676,19 @@
         <v>670831</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>633294</v>
+        <v>635016</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>711931</v>
+        <v>710980</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09254114969204424</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08736290422083158</v>
+        <v>0.08760043349077552</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09821097367578399</v>
+        <v>0.0980797116349562</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>141615</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>120708</v>
+        <v>120619</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>166471</v>
+        <v>166362</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04016851537105241</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03423837986284067</v>
+        <v>0.03421291922541932</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04721869405670399</v>
+        <v>0.04718787842656853</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>321</v>
@@ -9726,19 +9726,19 @@
         <v>208991</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>187033</v>
+        <v>188727</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>232020</v>
+        <v>234323</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.05612803508192042</v>
+        <v>0.0561280350819204</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05023067473224661</v>
+        <v>0.05068573770938813</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06231275898709929</v>
+        <v>0.06293120045804401</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>470</v>
@@ -9747,19 +9747,19 @@
         <v>350606</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>317763</v>
+        <v>320727</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>382099</v>
+        <v>382517</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.0483661790077588</v>
+        <v>0.04836617900775879</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04383537007259531</v>
+        <v>0.04424432848095336</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05271051089140984</v>
+        <v>0.0527682237949641</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>99232</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>79444</v>
+        <v>80564</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>119306</v>
+        <v>119742</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.02814668609373718</v>
+        <v>0.02814668609373719</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0225340199339861</v>
+        <v>0.02285159832903733</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.033840516776113</v>
+        <v>0.03396415575872765</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>203</v>
@@ -9797,19 +9797,19 @@
         <v>135470</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>117700</v>
+        <v>117347</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>156800</v>
+        <v>155822</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.03638280907447514</v>
+        <v>0.03638280907447512</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03161013764077829</v>
+        <v>0.0315153377041137</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04211108312489856</v>
+        <v>0.04184863126964076</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>307</v>
@@ -9818,19 +9818,19 @@
         <v>234702</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>208824</v>
+        <v>207252</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>264652</v>
+        <v>261677</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.03237719973636642</v>
+        <v>0.03237719973636641</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02880730194054025</v>
+        <v>0.0285904143391611</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03650881197619679</v>
+        <v>0.03609837883158345</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>1345230</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1272850</v>
+        <v>1281493</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1413529</v>
+        <v>1418115</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3815686877544022</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3610384528891392</v>
+        <v>0.3634898666276129</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4009413431646856</v>
+        <v>0.4022419836984084</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1013</v>
@@ -9868,19 +9868,19 @@
         <v>1009219</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>955652</v>
+        <v>954613</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1061374</v>
+        <v>1066297</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2710423198620324</v>
+        <v>0.2710423198620323</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2566559025082136</v>
+        <v>0.2563768320422613</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2850492243505401</v>
+        <v>0.2863713738345178</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1962</v>
@@ -9889,19 +9889,19 @@
         <v>2354450</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2265467</v>
+        <v>2266965</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2445470</v>
+        <v>2448626</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3247964287276152</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3125212572916584</v>
+        <v>0.3127279529768695</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3373527600023184</v>
+        <v>0.3377881132058245</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>1781434</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1718656</v>
+        <v>1718310</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1847998</v>
+        <v>1844512</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5052958918750388</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4874891327958213</v>
+        <v>0.487390977697978</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5241764072464891</v>
+        <v>0.5231876062869633</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2861</v>
@@ -9939,19 +9939,19 @@
         <v>1856978</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1800689</v>
+        <v>1802285</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1912268</v>
+        <v>1909243</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4987217152334877</v>
+        <v>0.4987217152334876</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4836043290312639</v>
+        <v>0.4840329693102913</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5135707060515642</v>
+        <v>0.5127584165148312</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4800</v>
@@ -9960,19 +9960,19 @@
         <v>3638412</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3544369</v>
+        <v>3555090</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3720454</v>
+        <v>3725723</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5019190428362155</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4889458982946623</v>
+        <v>0.4904248050048338</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.513236801293359</v>
+        <v>0.5139636575107953</v>
       </c>
     </row>
     <row r="33">
